--- a/Original/CN/Game/Recipe.xlsx
+++ b/Original/CN/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -65,9 +65,15 @@
     <t xml:space="preserve">57</t>
   </si>
   <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
     <t xml:space="preserve">56</t>
   </si>
   <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
     <t xml:space="preserve">34</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
   </si>
   <si>
     <t xml:space="preserve">EA 23.12 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.121</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.94 fix 1</t>
@@ -339,7 +348,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -347,7 +356,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -355,7 +364,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -363,7 +372,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -371,7 +380,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -379,7 +388,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -387,7 +396,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -395,7 +404,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -403,7 +412,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -411,7 +420,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -419,7 +428,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +436,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -435,7 +444,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -443,7 +452,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -451,7 +460,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -459,7 +468,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -467,7 +476,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -475,7 +484,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -483,7 +492,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -491,7 +500,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -499,7 +508,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -507,7 +516,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -515,7 +524,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -523,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -531,7 +540,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -539,7 +548,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -547,7 +556,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -555,7 +564,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
@@ -563,7 +572,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
@@ -571,7 +580,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
@@ -579,7 +588,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
@@ -587,7 +596,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
@@ -595,7 +604,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
@@ -603,7 +612,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37">
@@ -611,7 +620,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -619,7 +628,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39">
@@ -627,7 +636,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
@@ -635,7 +644,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
@@ -643,7 +652,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42">
@@ -651,7 +660,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -659,7 +668,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44">
@@ -667,7 +676,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
@@ -675,7 +684,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46">
@@ -683,7 +692,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
@@ -691,7 +700,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48">
@@ -699,7 +708,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49">
@@ -707,7 +716,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50">
@@ -715,7 +724,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
@@ -723,7 +732,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
@@ -731,7 +740,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
@@ -739,7 +748,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -747,7 +756,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
@@ -755,7 +764,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56">
@@ -763,7 +772,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
@@ -771,7 +780,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
@@ -779,7 +788,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
@@ -787,7 +796,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
@@ -795,7 +804,23 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/Recipe.xlsx
+++ b/Original/CN/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -74,6 +74,18 @@
     <t xml:space="preserve">63</t>
   </si>
   <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
     <t xml:space="preserve">34</t>
   </si>
   <si>
@@ -98,6 +110,12 @@
     <t xml:space="preserve">59</t>
   </si>
   <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
@@ -221,6 +239,9 @@
     <t xml:space="preserve">EA 23.121</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.135</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beta 22.94 fix 1</t>
   </si>
   <si>
@@ -237,6 +258,9 @@
   </si>
   <si>
     <t xml:space="preserve">EA 23.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.141</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.41</t>
@@ -348,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -356,7 +380,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -364,7 +388,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -372,7 +396,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -380,7 +404,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -388,7 +412,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -396,7 +420,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -404,7 +428,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -412,7 +436,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -420,7 +444,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -428,7 +452,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -436,7 +460,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -444,7 +468,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -452,7 +476,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -460,7 +484,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -468,7 +492,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -476,7 +500,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -484,7 +508,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -492,7 +516,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -500,7 +524,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -516,7 +540,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -524,7 +548,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -532,7 +556,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -540,7 +564,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -548,7 +572,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -556,7 +580,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -564,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -572,7 +596,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -580,7 +604,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -588,7 +612,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
@@ -596,7 +620,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
@@ -604,7 +628,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -612,7 +636,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
@@ -620,7 +644,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -628,7 +652,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39">
@@ -636,7 +660,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
@@ -644,7 +668,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -652,7 +676,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42">
@@ -660,7 +684,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -668,7 +692,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44">
@@ -676,7 +700,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
@@ -684,7 +708,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
@@ -692,7 +716,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
@@ -700,7 +724,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -708,7 +732,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -716,7 +740,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -724,7 +748,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
@@ -732,7 +756,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -740,7 +764,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
@@ -748,7 +772,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54">
@@ -756,7 +780,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55">
@@ -764,7 +788,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
@@ -772,7 +796,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
@@ -780,7 +804,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
@@ -788,7 +812,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
@@ -796,7 +820,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60">
@@ -804,7 +828,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
@@ -812,7 +836,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
@@ -820,7 +844,55 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/Recipe.xlsx
+++ b/Original/CN/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/Original/CN/Game/Recipe.xlsx
+++ b/Original/CN/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="94">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -107,6 +107,9 @@
     <t xml:space="preserve">49</t>
   </si>
   <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
     <t xml:space="preserve">59</t>
   </si>
   <si>
@@ -255,6 +258,9 @@
   </si>
   <si>
     <t xml:space="preserve">Beta 22.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.220</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.68</t>
@@ -372,7 +378,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -380,7 +386,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -388,7 +394,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -396,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -404,7 +410,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -412,7 +418,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -420,7 +426,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -428,7 +434,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -436,7 +442,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -444,7 +450,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -452,7 +458,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -460,7 +466,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -468,7 +474,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -476,7 +482,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -484,7 +490,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -492,7 +498,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
@@ -500,7 +506,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -508,7 +514,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -516,7 +522,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -524,7 +530,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -532,7 +538,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -540,7 +546,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -548,7 +554,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -556,7 +562,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +570,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -572,7 +578,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -580,7 +586,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -588,7 +594,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -596,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -604,7 +610,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -612,7 +618,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -628,7 +634,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -636,7 +642,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -644,7 +650,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -652,7 +658,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -668,7 +674,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
@@ -676,7 +682,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -684,7 +690,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
@@ -692,7 +698,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -708,7 +714,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -716,7 +722,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
@@ -724,7 +730,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
@@ -732,7 +738,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -740,7 +746,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
@@ -748,7 +754,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
@@ -756,7 +762,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
@@ -764,7 +770,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
@@ -772,7 +778,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -788,7 +794,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
@@ -796,7 +802,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57">
@@ -804,7 +810,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
@@ -812,7 +818,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
@@ -820,7 +826,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60">
@@ -828,7 +834,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61">
@@ -836,7 +842,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
@@ -844,7 +850,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
@@ -852,7 +858,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64">
@@ -860,7 +866,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65">
@@ -868,7 +874,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66">
@@ -876,7 +882,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
@@ -884,7 +890,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68">
@@ -892,7 +898,15 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/Recipe.xlsx
+++ b/Original/CN/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -107,9 +107,6 @@
     <t xml:space="preserve">49</t>
   </si>
   <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
     <t xml:space="preserve">59</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
   </si>
   <si>
     <t xml:space="preserve">Beta 22.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.220</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.68</t>
@@ -378,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -386,7 +380,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -394,7 +388,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -402,7 +396,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -410,7 +404,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -418,7 +412,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -426,7 +420,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -434,7 +428,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -442,7 +436,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -450,7 +444,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -458,7 +452,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -466,7 +460,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -474,7 +468,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -482,7 +476,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -490,7 +484,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -498,7 +492,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -506,7 +500,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -514,7 +508,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -522,7 +516,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -530,7 +524,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -538,7 +532,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -546,7 +540,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -554,7 +548,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -562,7 +556,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -570,7 +564,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -578,7 +572,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +580,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -594,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -602,7 +596,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -610,7 +604,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -618,7 +612,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
@@ -634,7 +628,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -642,7 +636,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
@@ -650,7 +644,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -658,7 +652,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39">
@@ -674,7 +668,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -682,7 +676,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42">
@@ -690,7 +684,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -698,7 +692,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44">
@@ -714,7 +708,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
@@ -722,7 +716,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
@@ -730,7 +724,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -738,7 +732,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -746,7 +740,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -754,7 +748,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
@@ -762,7 +756,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -770,7 +764,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
@@ -778,7 +772,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54">
@@ -794,7 +788,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
@@ -802,7 +796,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
@@ -810,7 +804,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
@@ -818,7 +812,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
@@ -826,7 +820,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60">
@@ -834,7 +828,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
@@ -842,7 +836,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
@@ -850,7 +844,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
@@ -858,7 +852,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64">
@@ -866,7 +860,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65">
@@ -874,7 +868,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66">
@@ -882,7 +876,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
@@ -890,7 +884,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
@@ -898,15 +892,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
